--- a/dailyWorkReports/2024-02-28「あさか丸」当直ー作業日報(1).xlsx
+++ b/dailyWorkReports/2024-02-28「あさか丸」当直ー作業日報(1).xlsx
@@ -2511,6 +2511,11 @@
         </is>
       </c>
       <c r="D22" s="155" t="n"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N22" s="7" t="n"/>
       <c r="P22" s="20" t="n"/>
       <c r="Q22" s="165" t="n"/>
@@ -2527,6 +2532,11 @@
       </c>
       <c r="C23" s="88" t="inlineStr"/>
       <c r="D23" s="166" t="n"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N23" s="7" t="n"/>
       <c r="P23" s="20" t="n"/>
       <c r="Q23" s="165" t="n"/>
